--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LTI-Eclipse Workspace\easeMyTripDemo1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DEED7C-53A3-4D54-8891-12C993D78902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8740A6-55BB-4104-A763-A7E03BB93BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>8888855555</t>
+  </si>
+  <si>
+    <t>levels@avicii.com</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -392,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,4 +466,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51F4E48-80A6-44F2-B41F-C0B6496B06F1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5ADF1557-9A47-4EF4-8CF1-FD773ECB90BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>